--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
     <sheet name="other_data" sheetId="7" r:id="rId2"/>
     <sheet name="config1|配置1" sheetId="6" r:id="rId3"/>
     <sheet name="gift1|礼包1" sheetId="3" r:id="rId4"/>
-    <sheet name="config1|配置2" sheetId="9" r:id="rId5"/>
+    <sheet name="config2|配置2" sheetId="9" r:id="rId5"/>
     <sheet name="gift2|礼包2" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -1179,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>line</t>
   </si>
@@ -133,163 +133,6 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>"1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:00-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>23:59:59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-"2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-"3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",</t>
     </r>
   </si>
   <si>
@@ -464,6 +307,170 @@
   </si>
   <si>
     <t>"483万","抽奖券*10","双倍奖励*3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xg_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>8:00-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>23:59:59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+"2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+"3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个礼包每日限购1次</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -960,10 +967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -973,7 +980,7 @@
     <col min="4" max="4" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -986,8 +993,14 @@
       <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -998,10 +1011,16 @@
         <v>1610380799</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
     </row>
   </sheetData>
@@ -1030,22 +1049,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1054,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>12000</v>
@@ -1075,13 +1094,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -1095,13 +1114,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>20000</v>
@@ -1115,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -1135,13 +1154,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>50000</v>
@@ -1155,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="7">
@@ -1198,31 +1217,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1233,16 +1252,16 @@
         <v>10413</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1251,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1262,16 +1281,16 @@
         <v>10414</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1280,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1291,16 +1310,16 @@
         <v>10415</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1309,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1320,16 +1339,16 @@
         <v>10416</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1338,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1349,16 +1368,16 @@
         <v>10417</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1367,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1378,16 +1397,16 @@
         <v>10418</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1396,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1419,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -1435,22 +1454,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1459,13 +1478,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>12000</v>
@@ -1480,13 +1499,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -1500,13 +1519,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>20000</v>
@@ -1520,13 +1539,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -1540,13 +1559,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>50000</v>
@@ -1560,10 +1579,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="7">
@@ -1599,31 +1618,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1634,16 +1653,16 @@
         <v>10419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1652,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1663,16 +1682,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1681,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1692,16 +1711,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1710,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1721,16 +1740,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1739,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1750,17 +1769,17 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
@@ -1768,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1779,16 +1798,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1797,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -887,7 +887,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,61 +1072,56 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>12000</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="F2" s="7">
-        <v>11895</v>
-      </c>
-      <c r="G2" s="6"/>
+        <v>11900</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>12000</v>
       </c>
       <c r="F3" s="7">
-        <v>11896</v>
-      </c>
+        <v>11895</v>
+      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>20000</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7">
-        <v>11897</v>
+        <v>11896</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1134,19 +1129,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>20000</v>
       </c>
       <c r="F5" s="7">
-        <v>11898</v>
+        <v>11897</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1154,34 +1149,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>50000</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7">
-        <v>11899</v>
+        <v>11898</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>50000</v>
+      </c>
       <c r="F7" s="7">
-        <v>11900</v>
+        <v>11899</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1190,7 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1477,61 +1477,56 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>12000</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="F2" s="7">
-        <v>11895</v>
-      </c>
-      <c r="G2" s="6"/>
+        <v>11900</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>12000</v>
       </c>
       <c r="F3" s="7">
-        <v>11896</v>
-      </c>
+        <v>11895</v>
+      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>20000</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7">
-        <v>11897</v>
+        <v>11896</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1539,19 +1534,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>20000</v>
       </c>
       <c r="F5" s="7">
-        <v>11898</v>
+        <v>11897</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1559,34 +1554,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>50000</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7">
-        <v>11899</v>
+        <v>11898</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>50000</v>
+      </c>
       <c r="F7" s="7">
-        <v>11900</v>
+        <v>11899</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>line</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
+  </si>
+  <si>
+    <t>"","","可用于抽奖"</t>
   </si>
   <si>
     <t>198元礼包</t>
@@ -719,18 +722,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -741,24 +752,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -776,13 +790,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -797,19 +804,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,22 +843,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -852,17 +857,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,25 +904,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,145 +1042,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,11 +1107,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,50 +1172,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,11 +1198,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,10 +1210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,136 +1222,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1803,7 +1806,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2044,8 +2047,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2115,7 +2118,9 @@
       <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="4">
@@ -2125,16 +2130,16 @@
         <v>10528</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -2142,7 +2147,9 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="4">
@@ -2152,16 +2159,16 @@
         <v>10529</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="10">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -2169,7 +2176,9 @@
       <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="4">
@@ -2179,16 +2188,16 @@
         <v>10530</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="10">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -2196,7 +2205,9 @@
       <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
       <c r="A6" s="4">
@@ -2206,16 +2217,16 @@
         <v>10531</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -2223,7 +2234,9 @@
       <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="A7" s="4">
@@ -2233,16 +2246,16 @@
         <v>10532</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -2250,7 +2263,9 @@
       <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
     <row r="9" s="2" customFormat="1"/>
@@ -2316,7 +2331,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="8">
@@ -2328,10 +2343,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>32</v>
@@ -2352,7 +2367,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>28</v>
@@ -2369,10 +2384,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>32</v>
@@ -2389,10 +2404,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -2409,10 +2424,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -2436,7 +2451,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2495,10 +2510,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2507,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2518,16 +2533,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2536,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2547,16 +2562,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2565,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2576,16 +2591,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2594,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2605,16 +2620,16 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2623,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2634,16 +2649,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2652,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>line</t>
   </si>
@@ -329,7 +329,7 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>cwlb_icon_sw_1</t>
+    <t>czlb_sj_1</t>
   </si>
   <si>
     <t>Iphone12</t>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>"60万金币","5000小游戏币","抽奖券*1",</t>
+  </si>
+  <si>
+    <t>cwlb_icon_sw_1</t>
   </si>
   <si>
     <t>华为P40</t>
@@ -684,9 +687,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -729,9 +732,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,7 +748,95 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,7 +844,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,96 +866,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,181 +907,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,6 +1110,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1126,33 +1153,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,33 +1199,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,10 +1213,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,133 +1225,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -1807,7 +1810,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1880,8 +1883,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2047,7 +2050,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2328,10 +2331,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="8">
@@ -2343,10 +2346,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>32</v>
@@ -2367,7 +2370,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>28</v>
@@ -2384,10 +2387,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>32</v>
@@ -2404,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -2424,10 +2427,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -2510,10 +2513,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2522,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2539,10 +2542,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2551,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2568,10 +2571,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2580,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2597,10 +2600,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2609,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2626,10 +2629,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2638,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2655,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2667,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>gift|对应的工作簿名字</t>
   </si>
   <si>
-    <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
+    <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
   </si>
   <si>
     <t>prop_qdlb_cjq</t>
@@ -157,7 +157,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>6</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -175,7 +175,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>29</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -211,7 +211,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>26</t>
+      <t>12</t>
     </r>
     <r>
       <rPr>
@@ -289,7 +289,7 @@
     </r>
   </si>
   <si>
-    <t>act_ty_zp1_004</t>
+    <t>act_ty_zp1_005</t>
   </si>
   <si>
     <t>礼包不限购</t>
@@ -332,10 +332,10 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>xslb_mdkt_1</t>
-  </si>
-  <si>
-    <t>美的空调</t>
+    <t>cjlb_Iphone12_1</t>
+  </si>
+  <si>
+    <t>Iphone12</t>
   </si>
   <si>
     <t>ty_icon_flq1</t>
@@ -690,10 +690,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -729,57 +729,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -796,7 +751,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,13 +827,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,6 +849,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -839,42 +864,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -910,181 +910,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,8 +1116,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,21 +1137,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1166,17 +1151,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,6 +1173,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1210,16 +1201,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,138 +1228,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1406,14 +1406,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1744,7 +1741,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1776,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1787,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="13">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>8</v>
@@ -1798,8 +1795,8 @@
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="18"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
@@ -1817,8 +1814,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1858,11 +1855,11 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
-        <v>1624924800</v>
+      <c r="B2" s="9">
+        <v>1625529600</v>
       </c>
       <c r="C2" s="20">
-        <v>1627315199</v>
+        <v>1626105599</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>16</v>
@@ -1892,7 +1889,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1939,7 +1936,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="8">
-        <v>12093</v>
+        <v>12099</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1959,7 +1956,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="8">
-        <v>12088</v>
+        <v>12094</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1980,7 +1977,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="8">
-        <v>12089</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2000,7 +1997,7 @@
         <v>37</v>
       </c>
       <c r="F5" s="8">
-        <v>12090</v>
+        <v>12096</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2020,7 +2017,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="8">
-        <v>12091</v>
+        <v>12097</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2040,7 +2037,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="8">
-        <v>12092</v>
+        <v>12098</v>
       </c>
     </row>
   </sheetData>
@@ -2058,8 +2055,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2109,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>10599</v>
+        <v>10605</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>53</v>
@@ -2138,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>10600</v>
+        <v>10606</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>57</v>
@@ -2167,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>10601</v>
+        <v>10607</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>60</v>
@@ -2196,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>10602</v>
+        <v>10608</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>63</v>
@@ -2225,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>10603</v>
+        <v>10609</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>66</v>
@@ -2254,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>10604</v>
+        <v>10610</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>69</v>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -827,8 +827,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -865,8 +865,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -881,67 +979,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -953,14 +992,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -976,37 +1007,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
@@ -1034,37 +1034,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,139 +1196,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,22 +1243,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,8 +1285,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,30 +1306,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1340,16 +1320,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1358,136 +1358,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1868,7 +1868,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -2215,8 +2215,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>line</t>
   </si>
@@ -39,16 +39,25 @@
     <t>gift|对应的工作簿名字</t>
   </si>
   <si>
+    <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+  </si>
+  <si>
+    <t>config1</t>
+  </si>
+  <si>
+    <t>gift1</t>
+  </si>
+  <si>
     <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
   </si>
   <si>
-    <t>prop_qdlb_cjq</t>
-  </si>
-  <si>
-    <t>config1</t>
-  </si>
-  <si>
-    <t>gift1</t>
+    <t>config2</t>
+  </si>
+  <si>
+    <t>gift2</t>
   </si>
   <si>
     <t>sta_t|活动开始时间戳</t>
@@ -157,7 +166,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>7</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -175,7 +184,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>6</t>
+      <t>29</t>
     </r>
     <r>
       <rPr>
@@ -211,7 +220,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>12</t>
+      <t>26</t>
     </r>
     <r>
       <rPr>
@@ -289,10 +298,170 @@
     </r>
   </si>
   <si>
+    <t>act_ty_zp1_004</t>
+  </si>
+  <si>
+    <t>礼包不限购</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8:00-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23:59:59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+"2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+"3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
     <t>act_ty_zp1_005</t>
-  </si>
-  <si>
-    <t>礼包不限购</t>
   </si>
   <si>
     <t>line|</t>
@@ -332,10 +501,10 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>cjlb_Iphone12_1</t>
-  </si>
-  <si>
-    <t>Iphone12</t>
+    <t>xslb_mdkt_1</t>
+  </si>
+  <si>
+    <t>美的空调</t>
   </si>
   <si>
     <t>ty_icon_flq1</t>
@@ -625,64 +794,10 @@
     <t>"60万金币","5000小游戏币","抽奖券*1",</t>
   </si>
   <si>
-    <t>cwlb_icon_sw_1</t>
-  </si>
-  <si>
-    <t>华为P40</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-  </si>
-  <si>
-    <t>12000金币</t>
-  </si>
-  <si>
-    <t>15福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-  </si>
-  <si>
-    <t>20000金币</t>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-  </si>
-  <si>
-    <t>30福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_2498y</t>
-  </si>
-  <si>
-    <t>50000金币</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","zpg_icon_yg",</t>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-  </si>
-  <si>
-    <t>"","","请在苹果大战中使用"</t>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","act_ty_zp1_cjq","zpg_icon_shui",</t>
-  </si>
-  <si>
-    <t>"483万","抽奖券*10","水滴*6",</t>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
+    <t>cjlb_Iphone12_1</t>
+  </si>
+  <si>
+    <t>Iphone12</t>
   </si>
 </sst>
 </file>
@@ -690,12 +805,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,10 +837,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -735,8 +871,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,14 +881,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,15 +895,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,6 +904,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,15 +934,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,9 +942,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,33 +956,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,17 +972,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -898,13 +1007,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,13 +1127,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,157 +1175,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,44 +1224,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,6 +1249,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1183,6 +1274,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,16 +1310,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,138 +1337,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,54 +1478,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1741,64 +1847,77 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="38.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="16" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="18">
+    <row r="2" ht="15.75" spans="1:6">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
+        <v>99</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9">
         <v>100</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="18"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="2"/>
@@ -1814,8 +1933,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1829,53 +1948,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:7">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>1625529600</v>
-      </c>
-      <c r="C2" s="20">
-        <v>1626105599</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>17</v>
+      <c r="B2" s="5">
+        <v>1624924800</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1627315199</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="18"/>
+    <row r="3" ht="49.5" spans="1:7">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1625529600</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1626105599</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1889,7 +2028,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1904,140 +2043,140 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="15.75" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8">
-        <v>12099</v>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="12">
+        <v>12093</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8">
-        <v>12094</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="12">
+        <v>12088</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12">
+        <v>12089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="8">
-        <v>12095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="8">
-        <v>12096</v>
+      <c r="E5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12">
+        <v>12090</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="8">
-        <v>12097</v>
+      <c r="E6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="12">
+        <v>12091</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="8">
-        <v>12098</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="12">
+        <v>12092</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2195,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2074,205 +2213,205 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>10605</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="5">
+        <v>10599</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>56</v>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>10606</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="5">
+        <v>10600</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>56</v>
+      <c r="I3" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>10607</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="B4" s="5">
+        <v>10601</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>10608</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B5" s="5">
+        <v>10602</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="E5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>56</v>
+      <c r="I5" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>10609</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="B6" s="5">
+        <v>10603</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="E6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>56</v>
+      <c r="I6" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>10610</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="B7" s="5">
+        <v>10604</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="E7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>56</v>
+      <c r="I7" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
@@ -2297,7 +2436,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2312,139 +2451,140 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6">
+    <row r="2" ht="15.75" spans="1:6">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="F2" s="8">
-        <v>11900</v>
+      <c r="B2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="12">
+        <v>12099</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3">
-        <v>12000</v>
-      </c>
-      <c r="F3" s="8">
-        <v>11895</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="D3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="12">
+        <v>12094</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8">
-        <v>11896</v>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12">
+        <v>12095</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11897</v>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12">
+        <v>12096</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6" s="8">
-        <v>11898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="12">
+        <v>12097</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:6">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>50000</v>
-      </c>
-      <c r="F7" s="8">
-        <v>11899</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="12">
+        <v>12098</v>
       </c>
     </row>
   </sheetData>
@@ -2458,8 +2598,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2477,31 +2617,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2509,28 +2649,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>10419</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2">
+        <v>10605</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>85</v>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2538,28 +2678,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>10420</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2">
+        <v>10606</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>85</v>
+      <c r="I3" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2567,28 +2707,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>10421</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2">
+        <v>10607</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>85</v>
+      <c r="I4" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2596,28 +2736,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>10422</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="2">
+        <v>10608</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="E5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>85</v>
+      <c r="I5" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2625,28 +2765,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>10423</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="2">
+        <v>10609</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>85</v>
+      <c r="I6" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2654,28 +2794,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>10424</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2">
+        <v>10610</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="E7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>85</v>
+      <c r="I7" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>line</t>
   </si>
@@ -30,9 +30,6 @@
     <t>item_key|道具key</t>
   </si>
   <si>
-    <t>item_img|道具图片</t>
-  </si>
-  <si>
     <t>box_exchange_id</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>prop_qdlb_cjq_cjj</t>
   </si>
   <si>
-    <t>act_ty_zp1_cjq_cjj</t>
-  </si>
-  <si>
     <t>config1</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
   </si>
   <si>
     <t>prop_qdlb_cjq</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_cjq</t>
   </si>
   <si>
     <t>config2</t>
@@ -817,10 +808,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -849,6 +840,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,45 +921,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +945,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -927,45 +953,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,15 +976,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1025,187 +1016,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,6 +1221,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,60 +1290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1331,16 +1307,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1349,136 +1340,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1856,22 +1847,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="38.125" customWidth="1"/>
-    <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1890,59 +1881,49 @@
       <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:7">
+    </row>
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="9">
+        <v>99</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9">
-        <v>99</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9">
-        <v>100</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
+    </row>
+    <row r="4" spans="3:3">
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1974,22 +1955,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:7">
@@ -2003,13 +1984,13 @@
         <v>1627315199</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2026,13 +2007,13 @@
         <v>1626105599</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2065,22 +2046,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -2089,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -2105,16 +2086,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="12">
         <v>12088</v>
@@ -2126,16 +2107,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="12">
         <v>12089</v>
@@ -2146,16 +2127,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="12">
         <v>12090</v>
@@ -2166,16 +2147,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="12">
         <v>12091</v>
@@ -2186,16 +2167,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="12">
         <v>12092</v>
@@ -2235,31 +2216,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2270,16 +2251,16 @@
         <v>10599</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2288,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2299,16 +2280,16 @@
         <v>10600</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2317,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2328,16 +2309,16 @@
         <v>10601</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2346,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2357,16 +2338,16 @@
         <v>10602</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2375,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2386,16 +2367,16 @@
         <v>10603</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2404,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2415,16 +2396,16 @@
         <v>10604</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2433,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
@@ -2473,22 +2454,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -2497,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -2513,16 +2494,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="12">
         <v>12094</v>
@@ -2534,16 +2515,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="12">
         <v>12095</v>
@@ -2554,16 +2535,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="12">
         <v>12096</v>
@@ -2574,16 +2555,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="12">
         <v>12097</v>
@@ -2594,16 +2575,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="12">
         <v>12098</v>
@@ -2639,31 +2620,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2674,16 +2655,16 @@
         <v>10605</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2692,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2703,16 +2684,16 @@
         <v>10606</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2721,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2732,16 +2713,16 @@
         <v>10607</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2750,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2761,16 +2742,16 @@
         <v>10608</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2779,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2790,16 +2771,16 @@
         <v>10609</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2808,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2819,16 +2800,16 @@
         <v>10610</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2837,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>line</t>
   </si>
@@ -743,64 +743,82 @@
     <t>498元礼包</t>
   </si>
   <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
+  </si>
+  <si>
+    <t>"","","可用于抽奖"</t>
+  </si>
+  <si>
+    <t>198元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
+  </si>
+  <si>
+    <t>98元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
+  </si>
+  <si>
+    <t>48元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
+  </si>
+  <si>
+    <t>20元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"200万金币","2万小游戏币","抽奖券*4",</t>
+  </si>
+  <si>
+    <t>6元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"60万金币","5000小游戏币","抽奖券*1",</t>
+  </si>
+  <si>
+    <t>cjlb_Iphone12_1</t>
+  </si>
+  <si>
+    <t>Iphone12</t>
+  </si>
+  <si>
     <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
-  </si>
-  <si>
-    <t>"","","可用于抽奖"</t>
-  </si>
-  <si>
-    <t>198元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
-  </si>
-  <si>
-    <t>98元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
-  </si>
-  <si>
-    <t>48元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
-  </si>
-  <si>
-    <t>20元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"200万金币","2万小游戏币","抽奖券*4",</t>
-  </si>
-  <si>
-    <t>6元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"60万金币","5000小游戏币","抽奖券*1",</t>
-  </si>
-  <si>
-    <t>cjlb_Iphone12_1</t>
-  </si>
-  <si>
-    <t>Iphone12</t>
   </si>
 </sst>
 </file>
@@ -808,10 +826,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -847,15 +865,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,11 +888,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -880,6 +906,14 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -900,21 +934,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,14 +957,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -953,10 +965,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -976,14 +993,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,31 +1034,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,151 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,6 +1243,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1244,7 +1282,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,13 +1302,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,49 +1340,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1340,37 +1358,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1379,97 +1397,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1849,8 +1867,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1937,7 +1955,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -2197,8 +2215,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2661,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>61</v>
@@ -2690,7 +2708,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>65</v>
@@ -2719,7 +2737,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>68</v>
@@ -2748,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>71</v>
@@ -2777,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>74</v>
@@ -2806,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>77</v>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -671,9 +671,6 @@
     <t>"60万金币","5000小游戏币","抽奖券*1",</t>
   </si>
   <si>
-    <t>cjlb_Iphone12_1</t>
-  </si>
-  <si>
     <r>
       <t>"1.</t>
     </r>
@@ -839,6 +836,10 @@
   </si>
   <si>
     <t>act_ty_zp1_006</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cqlb_mdkt_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1441,10 +1442,10 @@
         <v>1628524799</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -1869,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1909,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>

--- a/config_debug/act_ty_zp1_config.xlsx
+++ b/config_debug/act_ty_zp1_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>美的空调</t>
-  </si>
-  <si>
     <t>ty_icon_flq1</t>
   </si>
   <si>
@@ -500,10 +497,6 @@
     <t>"60万金币","5000小游戏币","抽奖券*1",</t>
   </si>
   <si>
-    <t>美的空调</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>cjlb_Iphone12_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -517,6 +510,14 @@
   </si>
   <si>
     <t>act_ty_zp1_007</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone12</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1099,7 @@
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -1119,7 +1120,7 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1139,7 +1140,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1178,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -1194,16 +1195,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="12">
         <v>12088</v>
@@ -1215,16 +1216,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="12">
         <v>12089</v>
@@ -1235,16 +1236,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="F5" s="12">
         <v>12090</v>
@@ -1255,16 +1256,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="12">
         <v>12091</v>
@@ -1275,16 +1276,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="12">
         <v>12092</v>
@@ -1296,7 +1297,7 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1326,28 +1327,28 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1358,16 +1359,16 @@
         <v>10599</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1376,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1387,17 +1388,17 @@
         <v>10600</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1416,17 +1417,17 @@
         <v>10601</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1445,17 +1446,17 @@
         <v>10602</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1474,17 +1475,17 @@
         <v>10603</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1503,17 +1504,17 @@
         <v>10604</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1544,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1584,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -1600,16 +1601,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="12">
         <v>12005</v>
@@ -1621,16 +1622,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="12">
         <v>12006</v>
@@ -1641,16 +1642,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="F5" s="12">
         <v>12007</v>
@@ -1661,16 +1662,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="12">
         <v>12008</v>
@@ -1681,16 +1682,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="12">
         <v>12009</v>
@@ -1707,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1729,28 +1730,28 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1761,16 +1762,16 @@
         <v>10605</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1779,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1790,17 +1791,17 @@
         <v>10606</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1819,17 +1820,17 @@
         <v>10607</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1848,17 +1849,17 @@
         <v>10608</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1877,17 +1878,17 @@
         <v>10609</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1906,17 +1907,17 @@
         <v>10610</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
